--- a/medicine/Enfance/Cornelia_Funke/Cornelia_Funke.xlsx
+++ b/medicine/Enfance/Cornelia_Funke/Cornelia_Funke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornelia Funke, née le 10 décembre 1958 à Dorsten en Rhénanie-du-Nord-Westphalie, est une écrivaine et illustratrice allemande, internationalement connue comme auteur de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle exerce le métier d'éducatrice pour enfants avant de devenir illustratrice.
 Depuis 1987, elle travaille en indépendante et produit des ouvrages pour enfants qu'elle illustre elle-même, ou illustrés par Kerstin Meyer.
@@ -547,7 +561,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les innombrables récompenses internationales qu'elle a reçues figurent le Book Sense Award du livre de l'année, le Mildred L. Batchelder Award, le Prix Suisse de la littérature jeunesse, le Prix du livre pour enfants de Zurich et le Torchlight Children's Book Award anglais.
 En novembre 2008, elle a reçu la croix de chevalier de l'Ordre du Mérite de la République fédérale d'Allemagne, la plus haute distinction d'Allemagne.
@@ -581,41 +597,284 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Die Gespensterjäger
-(de) Gespensterjäger auf eisiger Spur, 1993
+          <t>Série Die Gespensterjäger</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(de) Gespensterjäger auf eisiger Spur, 1993
 (de) Gespensterjäger im Feuerspuk, 1994
 (de) Gespensterjäger in der Gruselburg, 1995
-(de) Gespensterjäger in großer Gefahr, 2001
-Série Die Wilden Hühner
-(de) Die Wilden Hühner, 1993
+(de) Gespensterjäger in großer Gefahr, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Die Wilden Hühner</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(de) Die Wilden Hühner, 1993
 (de) Die Wilden Hühner auf Klassenfahrt, 1996
 (de) Die Wilden Hühner, Fuchsalarm, 1998
 (de) Die Wilden Hühner und das Glück der Erde, 2000
-(de) Die Wilden Hühner und die Liebe, 2003
-Série Weitere Die-Wilden-Hühner Bücher
-(de) Die Wilden Hühner – Das Bandenbuch zum Mitmachen, 2001
+(de) Die Wilden Hühner und die Liebe, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Weitere Die-Wilden-Hühner Bücher</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(de) Die Wilden Hühner – Das Bandenbuch zum Mitmachen, 2001
 (de) Die Wilden Hühner – Mein Tagebuch, 2004
 (de) Die Wilden Hühner und die Liebe, 2008
 (de) Die Wilden Hühner Fuchsalarm
 (de) Die Wilden Hühner und das LebenCoécrit avec Thomas Schmid.
 (de) Die Wilden Hühner Huhn ist weg
-(de) Die Wilden Hühner auf Klassenfahrt
-Série Cœur d'encre
-Cœur d'encre, Hachette Jeunesse, 2004 ((de) Tintenherz, 2003)
+(de) Die Wilden Hühner auf Klassenfahrt</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Cœur d'encre</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cœur d'encre, Hachette Jeunesse, 2004 ((de) Tintenherz, 2003)
 Sang d'encre, Gallimard Jeunesse, 2005 ((de) Tintenblut, 2005)
-Mort d'encre, Gallimard Jeunesse, 2010 ((de) Tintentod, 2007)
-Série Reckless
-Le Sortilège de pierre, Gallimard Jeunesse, 2010 ((de) Reckless. Steinernes Fleisch, 2010)
+Mort d'encre, Gallimard Jeunesse, 2010 ((de) Tintentod, 2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Reckless</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Sortilège de pierre, Gallimard Jeunesse, 2010 ((de) Reckless. Steinernes Fleisch, 2010)
 Le Retour de Jacob, Gallimard Jeunesse, 2014 ((de) Reckless. Lebendige Schatten, 2012)
-Le Fil d'or, Gallimard Jeunesse, 2016 ((de) Reckless. Das goldene Garn, 2015)
-Série Capitaine Barberousse
-Capitaine Barberousse et sa bande d'affreux, Bayard Jeunesse, 2004 ((de) Käpten Knitterbart und seine Bande, 1993)
-Capitaine Barberousse sur l'île au trésor, Bayard Jeunesse, 2007 ((de) Käpten Knitterbart auf der Schatzinsel, 1995)
-Série Cavalier du dragon
-Le Cavalier du dragon, Hachette Jeunesse, 2005 ((de) Drachenreiter, 1997)Réédition sous le titre Cavalier du dragon, Gallimard Jeunesse, 2018
-La Plume du griffon, Gallimard Jeunesse, 2018 ((de) Die Feder eines Greifs, 2016)
-Romans indépendants
-(de) Die große Drachensuche. Oder Ben und Lisa fliegen aufs Dach der Welt, 1988
+Le Fil d'or, Gallimard Jeunesse, 2016 ((de) Reckless. Das goldene Garn, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Capitaine Barberousse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Capitaine Barberousse et sa bande d'affreux, Bayard Jeunesse, 2004 ((de) Käpten Knitterbart und seine Bande, 1993)
+Capitaine Barberousse sur l'île au trésor, Bayard Jeunesse, 2007 ((de) Käpten Knitterbart auf der Schatzinsel, 1995)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Cavalier du dragon</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Cavalier du dragon, Hachette Jeunesse, 2005 ((de) Drachenreiter, 1997)Réédition sous le titre Cavalier du dragon, Gallimard Jeunesse, 2018
+La Plume du griffon, Gallimard Jeunesse, 2018 ((de) Die Feder eines Greifs, 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cornelia_Funke</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(de) Die große Drachensuche. Oder Ben und Lisa fliegen aufs Dach der Welt, 1988
 (de) Hinter verzauberten Fenstern, 1989
 (de) Kein Keks für Kobolde, 1989
 (de) Lilli und Flosse, 1990
